--- a/San_Salvador/Areas_Rot.xlsx
+++ b/San_Salvador/Areas_Rot.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Areas_Rot" sheetId="1" r:id="rId1"/>
     <sheet name="Rotaciones y Operaciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t>Uso del Suelo</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">agrc4_rot                        21          1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                 irr_str50_unlim</t>
   </si>
   <si>
     <t xml:space="preserve">agri_rot                         19          0  </t>
@@ -951,11 +948,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84239488"/>
-        <c:axId val="84241024"/>
+        <c:axId val="184941184"/>
+        <c:axId val="184811904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84239488"/>
+        <c:axId val="184941184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84241024"/>
+        <c:crossAx val="184811904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,7 +969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84241024"/>
+        <c:axId val="184811904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -984,7 +981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84239488"/>
+        <c:crossAx val="184941184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1352,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>78758.645659999995</v>
@@ -1366,7 +1363,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>60587.79621</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>45440.847329999997</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>30293.898160000001</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>15146.94908</v>
@@ -1410,7 +1407,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>4505.7081399999997</v>
@@ -1421,7 +1418,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <v>3416.17769</v>
@@ -1432,7 +1429,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2">
         <v>623.27869999999996</v>
@@ -1443,7 +1440,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
         <v>610.90819999999997</v>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
         <v>357.11282999999997</v>
@@ -1465,7 +1462,7 @@
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>53.095979999999997</v>
@@ -1476,7 +1473,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="10">
         <f>D5+D7</f>
@@ -1485,7 +1482,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10">
         <f>SUM(D3:D7)+D11</f>
@@ -1494,7 +1491,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10">
         <f>SUM(D4:D7)+D11</f>
@@ -1514,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,11 +1767,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
@@ -1882,7 +1874,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -1897,7 +1889,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -1917,7 +1909,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -1947,7 +1939,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -1977,17 +1969,17 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -1997,12 +1989,12 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -2052,47 +2044,47 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
